--- a/Dev/TestFonctionnel.xlsx
+++ b/Dev/TestFonctionnel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugop\Documents\1School1\Informatique\ProjetDApprofondissement2\unityProject\unity\Approfondissement2\Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugop\Documents\Unity\Approfondissement2\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AB0E7A-127B-4924-85B8-5460404A8ACE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7FE26E-3F3D-45C5-8748-1B3159A39C06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
   <si>
     <t>Test</t>
   </si>
@@ -66,9 +66,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>Jeu</t>
-  </si>
-  <si>
     <t>Pause</t>
   </si>
   <si>
@@ -109,13 +106,145 @@
   </si>
   <si>
     <t>Date du test</t>
+  </si>
+  <si>
+    <t>Camera Axe horizontal</t>
+  </si>
+  <si>
+    <t>Lorsque l'usager déplace sa souris vers la gauche ou la droite, celui-ci est en messure de tourner sa vision.</t>
+  </si>
+  <si>
+    <t>Camera Axe vertical</t>
+  </si>
+  <si>
+    <t>Lorsque l'usager déplace sa souris vers le haut et le bas, celui-ci est en messure de tourner sa vision jusqu'à un certain point.</t>
+  </si>
+  <si>
+    <t>Contrôle de jeu</t>
+  </si>
+  <si>
+    <t>Touche "W"</t>
+  </si>
+  <si>
+    <t>Touche "A"</t>
+  </si>
+  <si>
+    <t>Touche "S"</t>
+  </si>
+  <si>
+    <t>Touche "D"</t>
+  </si>
+  <si>
+    <t>Pression de la touche "Espace", lorsque touche le sol</t>
+  </si>
+  <si>
+    <t>Pression de la touche "Espace", lorsque ne touche pas le sol.</t>
+  </si>
+  <si>
+    <t>Lors de la pression de la touche, le personnage avance droit devant.</t>
+  </si>
+  <si>
+    <t>Lors de la pression de la touche, le personnage avance vers la droite.</t>
+  </si>
+  <si>
+    <t>Lors de la pression de la touche, le personnage avance vers la gauche.</t>
+  </si>
+  <si>
+    <t>Lors de la pression de la touche, le personnage recule en ligne droite.</t>
+  </si>
+  <si>
+    <t>Lors de la pression de la touche, le personnage saute dans les aires.</t>
+  </si>
+  <si>
+    <t>Lors de la pression, le personnage n'agit pas tant qu'il ne retouche pas le sol.</t>
+  </si>
+  <si>
+    <t>Contact avec l'environnement</t>
+  </si>
+  <si>
+    <t>Le personnage percute tous ce qui fait parti de son environnement, il ne passe pas au travers d'aucun objet et personnage.</t>
+  </si>
+  <si>
+    <t>Contact avec les personnages</t>
+  </si>
+  <si>
+    <t>Lors d'un contact avec les personnages, les peronnages reçoive une force dans une direction et son expulser dans celle-ci.</t>
+  </si>
+  <si>
+    <t>Personnages-non joueur</t>
+  </si>
+  <si>
+    <t>Déplacement des personnages non-joueur en ligne droite</t>
+  </si>
+  <si>
+    <t>Les personnages ce déplace en ligne droite pour une certaine durer de temps.</t>
+  </si>
+  <si>
+    <t>Rotation des personnages</t>
+  </si>
+  <si>
+    <t>Lorsque les personnages arrête de marcher, ceux-ci commence directement à tourner soit vers la gauche ou la droite.</t>
+  </si>
+  <si>
+    <t>Contact entre les personnages</t>
+  </si>
+  <si>
+    <t>Lorsque les personnages entre en contact, ceux-ci continue d'avancer comme si rien n'était arriver.</t>
+  </si>
+  <si>
+    <t>Contatct entre les personnages et l'environnement</t>
+  </si>
+  <si>
+    <t>Lorsque les personnages arrive à une certaine distance d'un mur, ceux-ci change de direction.</t>
+  </si>
+  <si>
+    <t>Double contact avec l'environnemetn</t>
+  </si>
+  <si>
+    <t>Les personnages lorsqu'ils passent près d'entrer en contact avec l'environnement, par contre si ceux-ci font directement face à un autre partie de l'environnement il l'est percute pour une courte durer avant de retourner.</t>
+  </si>
+  <si>
+    <t>Test de lancement</t>
+  </si>
+  <si>
+    <t>Ouverture du jeu</t>
+  </si>
+  <si>
+    <t>Le jeu ouvre sur la scène du menu principal.</t>
+  </si>
+  <si>
+    <t>Fermeture du jeu, menu principal</t>
+  </si>
+  <si>
+    <t>Lorsque l'usager appuie sur le bouton "Quitter", le jeux ferme.</t>
+  </si>
+  <si>
+    <t>Fermeture du jeu, menu de pause</t>
+  </si>
+  <si>
+    <t>Transition menu principal à jeu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transition jeu à menu principal </t>
+  </si>
+  <si>
+    <t>Lors de l'appuie du bouton "Menu principal" le jeu change de scène vers le menu.</t>
+  </si>
+  <si>
+    <t>Lors de l'appuie du bouton "Jouer" le jeu change de scène vers le jeu.</t>
+  </si>
+  <si>
+    <t>Animation du joueur</t>
+  </si>
+  <si>
+    <t>Lorsque le joueur ne touche pas à aucune touche, le personnage du joueur à une animation d'attente, et lorsqu'il est en mouvement il change d'animation pour une de marche.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +255,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -209,19 +344,72 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -244,6 +432,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -253,15 +450,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -271,7 +459,54 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,13 +787,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -588,25 +823,25 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -616,7 +851,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>5</v>
@@ -634,7 +869,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>5</v>
@@ -645,16 +880,16 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -662,7 +897,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>5</v>
@@ -680,7 +915,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>5</v>
@@ -698,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>5</v>
@@ -707,20 +942,20 @@
         <v>9</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>5</v>
@@ -735,10 +970,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>5</v>
@@ -753,10 +988,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>5</v>
@@ -771,141 +1006,460 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="B22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <v>19</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="27"/>
+    </row>
+    <row r="25" spans="1:6" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>20</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="32"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>21</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>22</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>23</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>24</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>25</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="B31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+      <c r="B33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
+      <c r="B34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+      <c r="B35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
+      <c r="B37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>30</v>
       </c>
+      <c r="B38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>30</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A36:F36"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A26:F26"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>